--- a/4조/최종문서/OWL_요구사항 정의서(ver.1).xlsx
+++ b/4조/최종문서/OWL_요구사항 정의서(ver.1).xlsx
@@ -349,10 +349,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">캘린더를 여러 가지 옵션으로 바꾸어 볼 수 있다. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">프로젝트 생성시 프로젝트 기간이 캘린더에 자동으로 입력된다. </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -554,6 +550,10 @@
   </si>
   <si>
     <t>사이트 소개를 볼 수 있다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캘린더 화면을 여러 가지 옵션으로 바꾸어 볼 수 있다. </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -947,9 +947,93 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,8 +1043,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -969,9 +1113,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -980,9 +1121,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1000,144 +1138,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A7:T120"/>
+  <dimension ref="A7:T107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1373,22 +1373,22 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:18" ht="18" customHeight="1">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="73"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="84"/>
       <c r="P7" s="43" t="s">
         <v>38</v>
       </c>
@@ -1400,20 +1400,20 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="18" customHeight="1">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="76"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="87"/>
       <c r="P8" s="42" t="s">
         <v>41</v>
       </c>
@@ -1423,20 +1423,20 @@
       <c r="R8" s="42"/>
     </row>
     <row r="9" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="79"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="90"/>
       <c r="P9" s="42" t="s">
         <v>43</v>
       </c>
@@ -1474,140 +1474,140 @@
       <c r="N11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="20.25" customHeight="1">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="2:18" ht="17.25" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="87" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="87"/>
-      <c r="M13" s="57" t="s">
+      <c r="L13" s="94"/>
+      <c r="M13" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="57"/>
-      <c r="O13" s="86" t="s">
+      <c r="N13" s="54"/>
+      <c r="O13" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="57" t="s">
+      <c r="P13" s="93"/>
+      <c r="Q13" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="57"/>
+      <c r="R13" s="54"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="87" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="87"/>
-      <c r="M14" s="57" t="s">
+      <c r="L14" s="94"/>
+      <c r="M14" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="57"/>
-      <c r="O14" s="86" t="s">
+      <c r="N14" s="54"/>
+      <c r="O14" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="57" t="s">
+      <c r="P14" s="93"/>
+      <c r="Q14" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="57"/>
+      <c r="R14" s="54"/>
     </row>
     <row r="15" spans="2:18" ht="17.25" customHeight="1">
-      <c r="B15" s="100"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="87" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="87"/>
-      <c r="M15" s="57" t="s">
+      <c r="L15" s="94"/>
+      <c r="M15" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="57"/>
-      <c r="O15" s="86" t="s">
+      <c r="N15" s="54"/>
+      <c r="O15" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="107">
+      <c r="P15" s="93"/>
+      <c r="Q15" s="66">
         <v>1</v>
       </c>
-      <c r="R15" s="107"/>
+      <c r="R15" s="66"/>
     </row>
     <row r="17" spans="1:18" ht="20.25" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="83" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="83" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="83" t="s">
+      <c r="P18" s="65"/>
+      <c r="Q18" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="85"/>
+      <c r="R18" s="65"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="26" t="s">
         <v>60</v>
       </c>
@@ -1627,8 +1627,8 @@
       <c r="R19" s="21"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="33" t="s">
         <v>44</v>
       </c>
@@ -1648,8 +1648,8 @@
       <c r="R20" s="16"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="29" t="s">
         <v>45</v>
       </c>
@@ -1669,8 +1669,8 @@
       <c r="R21" s="16"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="38" t="s">
         <v>58</v>
       </c>
@@ -1690,8 +1690,8 @@
       <c r="R22" s="16"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="11" t="s">
         <v>46</v>
       </c>
@@ -1711,8 +1711,8 @@
       <c r="R23" s="16"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="24" t="s">
         <v>47</v>
       </c>
@@ -1732,8 +1732,8 @@
       <c r="R24" s="16"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="24" t="s">
         <v>48</v>
       </c>
@@ -1753,10 +1753,10 @@
       <c r="R25" s="16"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="30" t="s">
         <v>49</v>
       </c>
@@ -1776,8 +1776,8 @@
       <c r="R26" s="21"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="66"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="32" t="s">
         <v>50</v>
       </c>
@@ -1797,10 +1797,10 @@
       <c r="R27" s="16"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="66"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -1818,10 +1818,10 @@
       <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="66"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -1839,32 +1839,38 @@
       <c r="R29" s="16"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="B30" s="66"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="16"/>
+      <c r="B30" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="21"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="B31" s="66"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -1877,8 +1883,8 @@
       <c r="R31" s="16"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="B32" s="66"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="24"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -1895,151 +1901,159 @@
       <c r="Q32" s="24"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="66"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="16"/>
+    <row r="33" spans="2:20" ht="12" customHeight="1">
+      <c r="B33" s="69"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="19"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="66"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="16"/>
-    </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="66"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="16"/>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="66"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="16"/>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="66"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="16"/>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="63"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="52"/>
+    </row>
+    <row r="36" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B36" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="54"/>
+      <c r="F36" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="21"/>
+    </row>
+    <row r="37" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B37" s="69"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="40"/>
       <c r="Q37" s="24"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
+    <row r="38" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B38" s="69"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="54"/>
+      <c r="F38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
-      <c r="O38" s="23"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="66"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+    <row r="39" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B39" s="69"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="16"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="24"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="66"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+    <row r="40" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B40" s="69"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -2048,17 +2062,19 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="16"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
       <c r="Q40" s="24"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="66"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+    <row r="41" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B41" s="69"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -2067,37 +2083,43 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="16"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
       <c r="Q41" s="24"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="66"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="16"/>
-    </row>
-    <row r="43" spans="2:20">
-      <c r="B43" s="66"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+    <row r="42" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B42" s="69"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="19"/>
+    </row>
+    <row r="43" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B43" s="69"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="75"/>
+      <c r="F43" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="20"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -2105,17 +2127,19 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="16"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
       <c r="Q43" s="24"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="2:20">
-      <c r="B44" s="66"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+    <row r="44" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B44" s="69"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -2124,161 +2148,169 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="16"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
       <c r="Q44" s="24"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="2:20">
-      <c r="B45" s="66"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="16"/>
-    </row>
-    <row r="46" spans="2:20">
-      <c r="B46" s="66"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="19"/>
-    </row>
-    <row r="47" spans="2:20">
-      <c r="R47" s="18"/>
-    </row>
-    <row r="48" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B48" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="103"/>
-      <c r="F48" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="R48" s="82"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="102"/>
+    <row r="45" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B45" s="69"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="F45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="21"/>
+    </row>
+    <row r="46" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B46" s="69"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="16"/>
+    </row>
+    <row r="47" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B47" s="69"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="16"/>
+    </row>
+    <row r="48" spans="2:20" ht="13.5" customHeight="1">
+      <c r="B48" s="69"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="19"/>
     </row>
     <row r="49" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B49" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="39"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="105"/>
+      <c r="F49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
       <c r="Q49" s="23"/>
       <c r="R49" s="21"/>
     </row>
     <row r="50" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B50" s="66"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="40"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
       <c r="Q50" s="24"/>
       <c r="R50" s="16"/>
     </row>
     <row r="51" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B51" s="66"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="21"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="16"/>
     </row>
     <row r="52" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B52" s="66"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="107"/>
       <c r="F52" s="5" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -2294,12 +2326,12 @@
       <c r="R52" s="16"/>
     </row>
     <row r="53" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B53" s="66"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="107"/>
       <c r="F53" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -2315,33 +2347,35 @@
       <c r="R53" s="16"/>
     </row>
     <row r="54" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B54" s="66"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="105"/>
+      <c r="F54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="21"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="16"/>
     </row>
     <row r="55" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B55" s="66"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="17" t="s">
-        <v>51</v>
+      <c r="B55" s="69"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="46" t="s">
+        <v>73</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -2352,21 +2386,21 @@
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="16"/>
     </row>
     <row r="56" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B56" s="66"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="47"/>
-      <c r="F56" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="20"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="105"/>
+      <c r="F56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -2380,12 +2414,12 @@
       <c r="R56" s="16"/>
     </row>
     <row r="57" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B57" s="66"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="28" t="s">
-        <v>66</v>
+      <c r="B57" s="69"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -2401,35 +2435,33 @@
       <c r="R57" s="16"/>
     </row>
     <row r="58" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B58" s="66"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="57"/>
-      <c r="F58" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="21"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="16"/>
     </row>
     <row r="59" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B59" s="66"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="28" t="s">
-        <v>52</v>
+      <c r="B59" s="69"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -2445,12 +2477,12 @@
       <c r="R59" s="16"/>
     </row>
     <row r="60" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B60" s="66"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="28" t="s">
-        <v>53</v>
+      <c r="B60" s="69"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -2466,56 +2498,56 @@
       <c r="R60" s="16"/>
     </row>
     <row r="61" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B61" s="66"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="19"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="105"/>
+      <c r="F61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="16"/>
     </row>
     <row r="62" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B62" s="66"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="21"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="16"/>
     </row>
     <row r="63" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B63" s="66"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="5" t="s">
-        <v>79</v>
+      <c r="B63" s="69"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -2526,17 +2558,17 @@
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
+      <c r="P63" s="16"/>
       <c r="Q63" s="24"/>
       <c r="R63" s="16"/>
     </row>
     <row r="64" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B64" s="66"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="7" t="s">
-        <v>68</v>
+      <c r="B64" s="69"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -2547,38 +2579,40 @@
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
+      <c r="P64" s="16"/>
       <c r="Q64" s="24"/>
       <c r="R64" s="16"/>
     </row>
     <row r="65" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B65" s="66"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="16"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="21"/>
     </row>
     <row r="66" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B66" s="66"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
       <c r="F66" s="5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -2594,58 +2628,54 @@
       <c r="R66" s="16"/>
     </row>
     <row r="67" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B67" s="66"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="21"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
       <c r="Q67" s="24"/>
       <c r="R67" s="16"/>
     </row>
     <row r="68" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B68" s="66"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="19"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
       <c r="Q68" s="24"/>
       <c r="R68" s="16"/>
     </row>
     <row r="69" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B69" s="66"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="59"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
       <c r="F69" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -2661,12 +2691,12 @@
       <c r="R69" s="16"/>
     </row>
     <row r="70" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B70" s="66"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="61"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
       <c r="F70" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -2682,12 +2712,12 @@
       <c r="R70" s="16"/>
     </row>
     <row r="71" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B71" s="66"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="5" t="s">
-        <v>76</v>
+      <c r="B71" s="69"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -2703,12 +2733,12 @@
       <c r="R71" s="16"/>
     </row>
     <row r="72" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B72" s="66"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="5" t="s">
-        <v>77</v>
+      <c r="B72" s="69"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -2724,12 +2754,12 @@
       <c r="R72" s="16"/>
     </row>
     <row r="73" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B73" s="66"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="5" t="s">
-        <v>78</v>
+      <c r="B73" s="69"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="45" t="s">
+        <v>92</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -2745,35 +2775,33 @@
       <c r="R73" s="16"/>
     </row>
     <row r="74" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B74" s="66"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="59"/>
-      <c r="F74" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="21"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
       <c r="Q74" s="24"/>
       <c r="R74" s="16"/>
     </row>
     <row r="75" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B75" s="66"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="61"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
       <c r="F75" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -2784,61 +2812,63 @@
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
-      <c r="P75" s="16"/>
+      <c r="P75" s="15"/>
       <c r="Q75" s="24"/>
       <c r="R75" s="16"/>
     </row>
     <row r="76" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B76" s="66"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="16"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="79"/>
+      <c r="F76" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="21"/>
     </row>
     <row r="77" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B77" s="66"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="16"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="19"/>
     </row>
     <row r="78" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B78" s="66"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="E78" s="57"/>
-      <c r="F78" s="4" t="s">
-        <v>81</v>
+      <c r="B78" s="69"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="54"/>
+      <c r="F78" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20"/>
@@ -2854,12 +2884,12 @@
       <c r="R78" s="21"/>
     </row>
     <row r="79" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B79" s="66"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="5" t="s">
-        <v>87</v>
+      <c r="B79" s="69"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -2875,12 +2905,12 @@
       <c r="R79" s="16"/>
     </row>
     <row r="80" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B80" s="66"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="5" t="s">
-        <v>88</v>
+      <c r="B80" s="69"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -2896,12 +2926,12 @@
       <c r="R80" s="16"/>
     </row>
     <row r="81" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B81" s="66"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="5" t="s">
-        <v>100</v>
+      <c r="B81" s="69"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -2917,12 +2947,12 @@
       <c r="R81" s="16"/>
     </row>
     <row r="82" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B82" s="66"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="5" t="s">
-        <v>89</v>
+      <c r="B82" s="69"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -2938,12 +2968,12 @@
       <c r="R82" s="16"/>
     </row>
     <row r="83" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B83" s="66"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="5" t="s">
-        <v>90</v>
+      <c r="B83" s="69"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -2959,12 +2989,12 @@
       <c r="R83" s="16"/>
     </row>
     <row r="84" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B84" s="66"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="7" t="s">
-        <v>91</v>
+      <c r="B84" s="69"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -2979,13 +3009,13 @@
       <c r="Q84" s="24"/>
       <c r="R84" s="16"/>
     </row>
-    <row r="85" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B85" s="66"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="7" t="s">
-        <v>92</v>
+    <row r="85" spans="2:18" ht="14.25" customHeight="1">
+      <c r="B85" s="69"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -3000,34 +3030,36 @@
       <c r="Q85" s="24"/>
       <c r="R85" s="16"/>
     </row>
-    <row r="86" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B86" s="66"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="16"/>
+    <row r="86" spans="2:18" ht="12.75" customHeight="1">
+      <c r="B86" s="69"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="54"/>
+      <c r="F86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="21"/>
     </row>
     <row r="87" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B87" s="66"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
       <c r="F87" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -3043,12 +3075,12 @@
       <c r="R87" s="16"/>
     </row>
     <row r="88" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B88" s="66"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
       <c r="F88" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -3064,79 +3096,77 @@
       <c r="R88" s="16"/>
     </row>
     <row r="89" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B89" s="66"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" s="68"/>
-      <c r="F89" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="23"/>
-      <c r="R89" s="21"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="19"/>
     </row>
     <row r="90" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B90" s="66"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="25"/>
-      <c r="R90" s="19"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="54"/>
+      <c r="F90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="23"/>
+      <c r="R90" s="21"/>
     </row>
     <row r="91" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B91" s="66"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="23"/>
-      <c r="R91" s="21"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="16"/>
     </row>
     <row r="92" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B92" s="66"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
       <c r="F92" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
@@ -3152,12 +3182,12 @@
       <c r="R92" s="16"/>
     </row>
     <row r="93" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B93" s="66"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
       <c r="F93" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
@@ -3173,35 +3203,37 @@
       <c r="R93" s="16"/>
     </row>
     <row r="94" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B94" s="66"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="16"/>
-    </row>
-    <row r="95" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B95" s="66"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" s="15"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="19"/>
+    </row>
+    <row r="95" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B95" s="69"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="75"/>
+      <c r="F95" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G95" s="20"/>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -3214,13 +3246,13 @@
       <c r="Q95" s="24"/>
       <c r="R95" s="16"/>
     </row>
-    <row r="96" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B96" s="66"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="2" t="s">
-        <v>114</v>
+    <row r="96" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B96" s="69"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
@@ -3235,13 +3267,13 @@
       <c r="Q96" s="24"/>
       <c r="R96" s="16"/>
     </row>
-    <row r="97" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B97" s="66"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="2" t="s">
-        <v>113</v>
+    <row r="97" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B97" s="69"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="15"/>
@@ -3256,13 +3288,13 @@
       <c r="Q97" s="24"/>
       <c r="R97" s="16"/>
     </row>
-    <row r="98" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B98" s="66"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="2" t="s">
-        <v>115</v>
+    <row r="98" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B98" s="69"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
@@ -3277,57 +3309,61 @@
       <c r="Q98" s="24"/>
       <c r="R98" s="16"/>
     </row>
-    <row r="99" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B99" s="66"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E99" s="57"/>
-      <c r="F99" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="21"/>
-    </row>
-    <row r="100" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B100" s="66"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="16"/>
-    </row>
-    <row r="101" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B101" s="66"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
+    <row r="99" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B99" s="69"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G99" s="18"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="R99" s="103"/>
+    </row>
+    <row r="100" spans="2:18">
+      <c r="B100" s="69"/>
+      <c r="C100" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="54"/>
+      <c r="F100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="21"/>
+    </row>
+    <row r="101" spans="2:18">
+      <c r="B101" s="69"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
       <c r="F101" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
@@ -3342,57 +3378,55 @@
       <c r="Q101" s="24"/>
       <c r="R101" s="16"/>
     </row>
-    <row r="102" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B102" s="66"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="25"/>
-      <c r="R102" s="19"/>
-    </row>
-    <row r="103" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B103" s="66"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="57"/>
-      <c r="F103" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="20"/>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="21"/>
-    </row>
-    <row r="104" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B104" s="66"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
+    <row r="102" spans="2:18">
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="16"/>
+    </row>
+    <row r="103" spans="2:18">
+      <c r="B103" s="69"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="16"/>
+    </row>
+    <row r="104" spans="2:18">
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
       <c r="F104" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
@@ -3407,13 +3441,13 @@
       <c r="Q104" s="24"/>
       <c r="R104" s="16"/>
     </row>
-    <row r="105" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B105" s="66"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="2" t="s">
-        <v>127</v>
+    <row r="105" spans="2:18">
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="15"/>
@@ -3428,13 +3462,13 @@
       <c r="Q105" s="24"/>
       <c r="R105" s="16"/>
     </row>
-    <row r="106" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B106" s="66"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
+    <row r="106" spans="2:18">
+      <c r="B106" s="69"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
       <c r="F106" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
@@ -3449,13 +3483,13 @@
       <c r="Q106" s="24"/>
       <c r="R106" s="16"/>
     </row>
-    <row r="107" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B107" s="66"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="9" t="s">
-        <v>128</v>
+    <row r="107" spans="2:18">
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
@@ -3470,319 +3504,17 @@
       <c r="Q107" s="25"/>
       <c r="R107" s="19"/>
     </row>
-    <row r="108" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B108" s="66"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" s="47"/>
-      <c r="F108" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G108" s="20"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="24"/>
-      <c r="R108" s="16"/>
-    </row>
-    <row r="109" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B109" s="66"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="24"/>
-      <c r="R109" s="16"/>
-    </row>
-    <row r="110" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B110" s="66"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15"/>
-      <c r="O110" s="15"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="24"/>
-      <c r="R110" s="16"/>
-    </row>
-    <row r="111" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B111" s="66"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="24"/>
-      <c r="R111" s="16"/>
-    </row>
-    <row r="112" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B112" s="66"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G112" s="18"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="15"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="R112" s="56"/>
-    </row>
-    <row r="113" spans="2:18">
-      <c r="B113" s="66"/>
-      <c r="C113" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" s="57"/>
-      <c r="F113" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20"/>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="23"/>
-      <c r="R113" s="21"/>
-    </row>
-    <row r="114" spans="2:18">
-      <c r="B114" s="66"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="24"/>
-      <c r="R114" s="16"/>
-    </row>
-    <row r="115" spans="2:18">
-      <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
-      <c r="N115" s="15"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="24"/>
-      <c r="R115" s="16"/>
-    </row>
-    <row r="116" spans="2:18">
-      <c r="B116" s="66"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="57"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="15"/>
-      <c r="O116" s="15"/>
-      <c r="P116" s="15"/>
-      <c r="Q116" s="24"/>
-      <c r="R116" s="16"/>
-    </row>
-    <row r="117" spans="2:18">
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="57"/>
-      <c r="F117" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-      <c r="N117" s="15"/>
-      <c r="O117" s="15"/>
-      <c r="P117" s="15"/>
-      <c r="Q117" s="24"/>
-      <c r="R117" s="16"/>
-    </row>
-    <row r="118" spans="2:18">
-      <c r="B118" s="66"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="15"/>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="24"/>
-      <c r="R118" s="16"/>
-    </row>
-    <row r="119" spans="2:18">
-      <c r="B119" s="66"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="24"/>
-      <c r="R119" s="16"/>
-    </row>
-    <row r="120" spans="2:18">
-      <c r="B120" s="66"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="25"/>
-      <c r="R120" s="19"/>
-    </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J15"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B19:C25"/>
-    <mergeCell ref="B26:C37"/>
-    <mergeCell ref="B49:B120"/>
-    <mergeCell ref="C113:C120"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D103:E107"/>
-    <mergeCell ref="D99:E102"/>
-    <mergeCell ref="D113:E120"/>
-    <mergeCell ref="D78:E88"/>
-    <mergeCell ref="D56:E57"/>
-    <mergeCell ref="D58:E61"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="B38:C46"/>
-    <mergeCell ref="D89:E90"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="D38:E42"/>
+    <mergeCell ref="D49:E53"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="D56:E60"/>
+    <mergeCell ref="D61:E64"/>
+    <mergeCell ref="D78:E85"/>
     <mergeCell ref="B7:O9"/>
-    <mergeCell ref="F48:P48"/>
+    <mergeCell ref="F35:P35"/>
     <mergeCell ref="D18:N18"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O13:P13"/>
@@ -3793,17 +3525,38 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="D108:E112"/>
-    <mergeCell ref="C49:C112"/>
-    <mergeCell ref="Q112:R112"/>
-    <mergeCell ref="D51:E55"/>
-    <mergeCell ref="D62:E66"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="D69:E73"/>
-    <mergeCell ref="D74:E77"/>
-    <mergeCell ref="D91:E98"/>
+    <mergeCell ref="B36:B107"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D90:E94"/>
+    <mergeCell ref="D86:E89"/>
+    <mergeCell ref="D100:E107"/>
+    <mergeCell ref="D65:E75"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="D45:E48"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="B30:C33"/>
+    <mergeCell ref="D76:E77"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="D95:E99"/>
+    <mergeCell ref="C36:C99"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J15"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="B19:C25"/>
+    <mergeCell ref="B26:C29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
